--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
         <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -835,7 +835,7 @@
         <v>1.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
         <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -805,19 +805,19 @@
         <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,17 +653,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -679,234 +679,369 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K2" t="n">
+        <v>950</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.01</v>
       </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.01</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2025-11-12</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Atletico MG</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Fortaleza EC</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>1.73</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>1.75</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>6</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>6.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>3.6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>3.95</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.77</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>2.1</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -673,7 +673,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -691,16 +691,16 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G4" t="n">
         <v>1.75</v>
@@ -949,10 +949,10 @@
         <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>1.77</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -679,10 +679,10 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -715,7 +715,7 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.33</v>
+        <v>4.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
@@ -949,100 +949,100 @@
         <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -700,7 +700,7 @@
         <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
@@ -802,43 +802,43 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="G3" t="n">
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="I3" t="n">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
         <v>2.98</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
         <v>1.76</v>
@@ -952,7 +952,7 @@
         <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
@@ -961,28 +961,28 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
@@ -1021,7 +1021,7 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>120</v>
@@ -1043,6 +1043,141 @@
       </c>
       <c r="AO4" t="n">
         <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X5" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -673,13 +673,13 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.27</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="K2" t="n">
         <v>980</v>
@@ -715,7 +715,7 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.66</v>
+        <v>2.66</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
         <v>1.66</v>
@@ -838,22 +838,22 @@
         <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="G4" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -964,43 +964,43 @@
         <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
         <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
         <v>7.6</v>
@@ -1009,10 +1009,10 @@
         <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="n">
         <v>9.6</v>
@@ -1021,28 +1021,28 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
         <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="G5" t="n">
         <v>6.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="I5" t="n">
         <v>1.88</v>
@@ -1087,10 +1087,10 @@
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1114,7 +1114,7 @@
         <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
         <v>1.76</v>
@@ -1165,10 +1165,10 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,31 +691,31 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.01</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,72 +788,72 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.66</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>2.24</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,125 +1058,260 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.2</v>
+        <v>1.74</v>
       </c>
       <c r="G5" t="n">
-        <v>6.6</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1.74</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.88</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.62</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
         <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.12</v>
       </c>
-      <c r="W5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="W6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X6" t="n">
         <v>980</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y6" t="n">
         <v>980</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z6" t="n">
         <v>980</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA6" t="n">
         <v>980</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB6" t="n">
         <v>980</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC6" t="n">
         <v>980</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD6" t="n">
         <v>980</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE6" t="n">
         <v>980</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF6" t="n">
         <v>980</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG6" t="n">
         <v>980</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH6" t="n">
         <v>980</v>
       </c>
-      <c r="AI5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
         <v>130</v>
       </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="AL6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -691,28 +691,28 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
         <v>1.09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
         <v>1.09</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>2.94</v>
       </c>
       <c r="K3" t="n">
-        <v>7.6</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.42</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -940,55 +940,55 @@
         <v>1.87</v>
       </c>
       <c r="G4" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.45</v>
@@ -1096,25 +1096,25 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
         <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
         <v>1.87</v>
@@ -1123,13 +1123,13 @@
         <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
         <v>46</v>
@@ -1141,7 +1141,7 @@
         <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>23</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="I6" t="n">
         <v>1.89</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
         <v>2.12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
@@ -1294,16 +1294,16 @@
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -673,13 +673,13 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>2.52</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -688,13 +688,13 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
         <v>1.24</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
         <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.64</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.45</v>
@@ -1099,85 +1099,85 @@
         <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
         <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB5" t="n">
         <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
         <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -1207,67 +1207,67 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.89</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.72</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AA6" t="n">
         <v>980</v>
@@ -1276,7 +1276,7 @@
         <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1294,16 +1294,16 @@
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL6" t="n">
         <v>110</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>120</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>1.67</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.92</v>
       </c>
       <c r="J2" t="n">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>3.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
-        <v>1.09</v>
+        <v>1.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -802,82 +802,82 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="H3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.4</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
         <v>16</v>
@@ -886,28 +886,28 @@
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>40</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.77</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.79</v>
-      </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
         <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="T5" t="n">
         <v>2.04</v>
@@ -1123,13 +1123,13 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
         <v>42</v>
@@ -1141,7 +1141,7 @@
         <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>22</v>
@@ -1159,25 +1159,25 @@
         <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="n">
         <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
         <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -1207,67 +1207,67 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="I6" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
         <v>980</v>
@@ -1276,7 +1276,7 @@
         <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1297,10 +1297,10 @@
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SV Lafnitz</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>FC Groningen</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="I2" t="n">
-        <v>1.92</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="R2" t="n">
-        <v>2.04</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.68</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="V2" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.72</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>1.84</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.16</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>9.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>4.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>1.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>1.61</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>3.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>1.54</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -997,58 +997,58 @@
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.76</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.77</v>
-      </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.8</v>
       </c>
       <c r="T5" t="n">
         <v>2.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
         <v>42</v>
       </c>
-      <c r="AA5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.5</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,125 +1193,260 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.93</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
         <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.94</v>
       </c>
-      <c r="V6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X6" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X7" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="Z7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC7" t="n">
         <v>9.4</v>
       </c>
-      <c r="AD6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AD7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI7" t="n">
         <v>55</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ7" t="n">
         <v>140</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK7" t="n">
         <v>80</v>
       </c>
-      <c r="AL6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AL7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>3.8</v>
       </c>
       <c r="G2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R2" t="n">
         <v>2.4</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S2" t="n">
-        <v>2.38</v>
+        <v>1.64</v>
       </c>
       <c r="T2" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SV Lafnitz</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.6</v>
       </c>
-      <c r="G3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.7</v>
-      </c>
       <c r="I3" t="n">
-        <v>1.84</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.16</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.16</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.48</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>1.81</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="Z4" t="n">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
         <v>55</v>
       </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>29</v>
-      </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM5" t="n">
         <v>130</v>
       </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,260 +1193,125 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>1.86</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>1.93</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>2.06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.34</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>8.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.5</v>
+        <v>140</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:20:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Boyaca Chico</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X7" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.8</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.7</v>
-      </c>
       <c r="I2" t="n">
-        <v>1.78</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>2.06</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.28</v>
+        <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -751,10 +751,10 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,16 +763,16 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.44</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.02</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>4.6</v>
+        <v>1.03</v>
       </c>
       <c r="T3" t="n">
-        <v>1.07</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>960</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>400</v>
+        <v>970</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="G4" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.46</v>
@@ -967,37 +967,37 @@
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
         <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>9.4</v>
       </c>
       <c r="AG4" t="n">
         <v>40</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1084,40 +1084,40 @@
         <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.98</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>1.19</v>
@@ -1126,13 +1126,13 @@
         <v>2.4</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
         <v>160</v>
@@ -1141,7 +1141,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>22</v>
@@ -1150,22 +1150,22 @@
         <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
         <v>90</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL5" t="n">
         <v>38</v>
@@ -1177,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I6" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1246,10 +1246,10 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
         <v>1.94</v>
@@ -1258,61 +1258,61 @@
         <v>2.06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM6" t="n">
         <v>140</v>
       </c>
-      <c r="AK6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>170</v>
-      </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SV Lafnitz</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
+      <c r="T2" t="n">
         <v>2.06</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>1.34</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI2" t="n">
         <v>1000</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM2" t="n">
         <v>1000</v>
       </c>
-      <c r="AH2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AN2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.02</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.03</v>
+        <v>2.48</v>
       </c>
       <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
         <v>19</v>
       </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>960</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN3" t="n">
         <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,396 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.64</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>5.2</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>1.87</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
         <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.34</v>
+        <v>1.24</v>
       </c>
       <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN4" t="n">
         <v>1000</v>
       </c>
-      <c r="Y4" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Atletico MG</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Fortaleza EC</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:20:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Boyaca Chico</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>990</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>19.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.4</v>
+        <v>990</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>1.31</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>3.95</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>42</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1.08</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>1.32</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>850</v>
       </c>
       <c r="Z2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>850</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,261 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.66</v>
+        <v>5.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>5.9</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>1.23</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>1.77</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>1.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>1.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:20:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Boyaca Chico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
